--- a/biology/Médecine/Grand_tubercule_de_l'humérus/Grand_tubercule_de_l'humérus.xlsx
+++ b/biology/Médecine/Grand_tubercule_de_l'humérus/Grand_tubercule_de_l'humérus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_tubercule_de_l%27hum%C3%A9rus</t>
+          <t>Grand_tubercule_de_l'humérus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grand tubercule de l'humérus (ou trochiter ou grosse tubérosité de l'humérus) est une saillie prolongeant la partie latérale de l'extrémité supérieure de l'humérus.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand_tubercule_de_l%27hum%C3%A9rus</t>
+          <t>Grand_tubercule_de_l'humérus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La face supérieure du tubercule majeur est arrondie, et marquée par trois empreintes plates :
 la plus haute donne l'insertion au muscle supra-épineux,
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grand_tubercule_de_l%27hum%C3%A9rus</t>
+          <t>Grand_tubercule_de_l'humérus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois muscles qui s'attachent au tubercule majeur font partie coiffe des rotateurs, un groupe musculaire qui stabilise l' articulation gléno-humérale. Le tubercule majeur est le point de transfert des forces des muscles de la coiffe des rotateurs vers l'humérus.
 Le quatrième muscle de la coiffe des rotateurs : le muscle sous-scapulaire s'attache au petit tubercule de l'humérus.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grand_tubercule_de_l%27hum%C3%A9rus</t>
+          <t>Grand_tubercule_de_l'humérus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tubercule majeur est la partie de l'humérus la plus facile à palper et sert de repère de surface en chirurgie. 
 </t>
